--- a/dist/document/dest/2020/10/doctors/nnv.xlsx
+++ b/dist/document/dest/2020/10/doctors/nnv.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>30</v>
       </c>
-      <c r="C2" s="1">
-        <v>390000</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>515</v>
       </c>
-      <c r="C3" s="1">
-        <v>2116650</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>324</v>
       </c>
-      <c r="C4" s="1">
-        <v>2120580</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>14</v>
       </c>
-      <c r="C5" s="1">
-        <v>92400</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>255</v>
       </c>
-      <c r="C6" s="1">
-        <v>540600</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>10</v>
       </c>
-      <c r="C7" s="1">
-        <v>100000</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>185</v>
       </c>
-      <c r="C8" s="1">
-        <v>1556775</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>69</v>
       </c>
-      <c r="C9" s="1">
-        <v>605130</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -492,9 +468,6 @@
       <c r="B10" s="1">
         <v>100</v>
       </c>
-      <c r="C10" s="1">
-        <v>25400</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -503,9 +476,6 @@
       <c r="B11" s="1">
         <v>2</v>
       </c>
-      <c r="C11" s="1">
-        <v>1260000</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -515,7 +485,7 @@
         <v>1504</v>
       </c>
       <c r="C12" s="1">
-        <v>8807535</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/nnv.xlsx
+++ b/dist/document/dest/2020/10/doctors/nnv.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -402,95 +402,411 @@
         <v>Celebrex (Celecoxib 200mg)</v>
       </c>
       <c r="B2" s="1">
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="C2" s="1">
+        <v>130000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Daflon (Diosmin, hesperidin)</v>
+        <v>Celebrex (Celecoxib 200mg)</v>
       </c>
       <c r="B3" s="1">
-        <v>515</v>
+        <v>30</v>
+      </c>
+      <c r="C3" s="1">
+        <v>390000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Diosfort (Diosmin 600mg)</v>
+        <v>Celebrex (Celecoxib 200mg)</v>
       </c>
       <c r="B4" s="1">
-        <v>324</v>
+        <v>30</v>
+      </c>
+      <c r="C4" s="1">
+        <v>390000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>E-Cox (Etoricoxib 60mg)</v>
+        <v>Celebrex (Celecoxib 200mg)</v>
       </c>
       <c r="B5" s="1">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>130000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v xml:space="preserve">Mg B6 </v>
+        <v>Daflon (Diosmin, hesperidin)</v>
       </c>
       <c r="B6" s="1">
-        <v>255</v>
+        <v>115</v>
+      </c>
+      <c r="C6" s="1">
+        <v>472650</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Mobic (Meloxicam) ( v) 7.5mg</v>
+        <v>Diosfort (Diosmin 600mg)</v>
       </c>
       <c r="B7" s="1">
-        <v>10</v>
+        <v>90</v>
+      </c>
+      <c r="C7" s="1">
+        <v>589050</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Opecerin (Diacerein 50mg)</v>
+        <v>Diosfort (Diosmin 600mg)</v>
       </c>
       <c r="B8" s="1">
-        <v>185</v>
+        <v>50</v>
+      </c>
+      <c r="C8" s="1">
+        <v>327250</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Rabesime (Rabeprazole 20mg)</v>
+        <v>Diosfort (Diosmin 600mg)</v>
       </c>
       <c r="B9" s="1">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="C9" s="1">
+        <v>458150</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Rutin-Vitamin C (Rutin, vitamin C)</v>
+        <v>Diosfort (Diosmin 600mg)</v>
       </c>
       <c r="B10" s="1">
-        <v>100</v>
+        <v>420</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2748900</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Vớ Jobst Relief Gối (M)</v>
+        <v>Diosfort (Diosmin 600mg)</v>
       </c>
       <c r="B11" s="1">
-        <v>2</v>
+        <v>70</v>
+      </c>
+      <c r="C11" s="1">
+        <v>458150</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
+        <v>Diosfort (Diosmin 600mg)</v>
+      </c>
+      <c r="B12" s="1">
+        <v>130</v>
+      </c>
+      <c r="C12" s="1">
+        <v>850850</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Diosfort (Diosmin 600mg)</v>
+      </c>
+      <c r="B13" s="1">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>65450</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>E-Cox (Etoricoxib 60mg)</v>
+      </c>
+      <c r="B14" s="1">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1">
+        <v>99000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Espacox (Celecoxib 200mg)</v>
+      </c>
+      <c r="B15" s="1">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1">
+        <v>80850</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v xml:space="preserve">Mg B6 </v>
+      </c>
+      <c r="B16" s="1">
+        <v>40</v>
+      </c>
+      <c r="C16" s="1">
+        <v>84800</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v xml:space="preserve">Mg B6 </v>
+      </c>
+      <c r="B17" s="1">
+        <v>306</v>
+      </c>
+      <c r="C17" s="1">
+        <v>648720</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v xml:space="preserve">Mg B6 </v>
+      </c>
+      <c r="B18" s="1">
+        <v>40</v>
+      </c>
+      <c r="C18" s="1">
+        <v>84800</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Mobic (Meloxicam) ( v) 7.5mg</v>
+      </c>
+      <c r="B19" s="1">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Opecerin (Diacerein 50mg)</v>
+      </c>
+      <c r="B20" s="1">
+        <v>80</v>
+      </c>
+      <c r="C20" s="1">
+        <v>673200</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Opecerin (Diacerein 50mg)</v>
+      </c>
+      <c r="B21" s="1">
+        <v>15</v>
+      </c>
+      <c r="C21" s="1">
+        <v>126225</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Opecerin (Diacerein 50mg)</v>
+      </c>
+      <c r="B22" s="1">
+        <v>50</v>
+      </c>
+      <c r="C22" s="1">
+        <v>420750</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Opecerin (Diacerein 50mg)</v>
+      </c>
+      <c r="B23" s="1">
+        <v>192</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1615680</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Opecerin (Diacerein 50mg)</v>
+      </c>
+      <c r="B24" s="1">
+        <v>10</v>
+      </c>
+      <c r="C24" s="1">
+        <v>84150</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Rabesime (Rabeprazole 20mg)</v>
+      </c>
+      <c r="B25" s="1">
+        <v>10</v>
+      </c>
+      <c r="C25" s="1">
+        <v>87700</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Rabesime (Rabeprazole 20mg)</v>
+      </c>
+      <c r="B26" s="1">
+        <v>30</v>
+      </c>
+      <c r="C26" s="1">
+        <v>263100</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Rabesime (Rabeprazole 20mg)</v>
+      </c>
+      <c r="B27" s="1">
+        <v>87</v>
+      </c>
+      <c r="C27" s="1">
+        <v>762990</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Rabesime (Rabeprazole 20mg)</v>
+      </c>
+      <c r="B28" s="1">
+        <v>10</v>
+      </c>
+      <c r="C28" s="1">
+        <v>87700</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Rhaminas (Glucosamine, chondroitin)</v>
+      </c>
+      <c r="B29" s="1">
+        <v>30</v>
+      </c>
+      <c r="C29" s="1">
+        <v>151800</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Rutin-Vitamin C (Rutin, vitamin C)</v>
+      </c>
+      <c r="B30" s="1">
+        <v>120</v>
+      </c>
+      <c r="C30" s="1">
+        <v>30480</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Rutin-Vitamin C (Rutin, vitamin C)</v>
+      </c>
+      <c r="B31" s="1">
+        <v>60</v>
+      </c>
+      <c r="C31" s="1">
+        <v>15240</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Rutin-Vitamin C (Rutin, vitamin C)</v>
+      </c>
+      <c r="B32" s="1">
+        <v>60</v>
+      </c>
+      <c r="C32" s="1">
+        <v>15240</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v xml:space="preserve">VỚ JOBST RELIEF ĐÙI (M) </v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1050000</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v xml:space="preserve">Vớ Jobst Relief Gối (L) </v>
+      </c>
+      <c r="B34" s="1">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1260000</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v xml:space="preserve">Vớ Jobst Relief Gối (L) </v>
+      </c>
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1">
+        <v>630000</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Vớ Jobst Relief Gối (M)</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1">
+        <v>630000</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>Vớ Jobst Relief Gối (M)</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1">
+        <v>630000</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
         <v>Tổng cộng</v>
       </c>
-      <c r="B12" s="1">
-        <v>1504</v>
-      </c>
-      <c r="C12" s="1">
-        <v>NaN</v>
+      <c r="B38" s="1">
+        <v>2206</v>
+      </c>
+      <c r="C38" s="1">
+        <v>16572875</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C12"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C38"/>
   </ignoredErrors>
 </worksheet>
 </file>